--- a/Crosswalk/B6_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B6_UDS4_programmatic_crosswalk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAB Neurology\NACC and UDS\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UDS3_4 Tables Data Dictionary" sheetId="9" r:id="rId1"/>
@@ -1615,9 +1615,6 @@
   </si>
   <si>
     <t>9c. If B6 not submitted, specify reason. (see KEY)</t>
-  </si>
-  <si>
-    <t>&lt;div class="rich-text-field-label"&gt;&lt;p&gt;&lt;span style="font-weight: normal;"&gt;16. &lt;/span&gt;Sum all checked answers for a Total GDS Score &lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div class="rich-text-field-label"&gt;&lt;p&gt;&lt;span style="font-weight: normal;"&gt;1. Are you basically satisfied with your life?&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
@@ -2780,6 +2777,9 @@
   </si>
   <si>
     <t>DECISIONS MUST BE MADE FOR:</t>
+  </si>
+  <si>
+    <t>&lt;div class="rich-text-field-label"&gt;&lt;p&gt;&lt;span style="font-weight: normal;"&gt;16. Manual Data Entry of Total GDS Score&lt;/span&gt; &lt;/p&gt; &lt;p&gt; &lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -3278,13 +3278,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3313,27 +3334,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3699,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3720,21 +3720,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3766,38 +3766,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D3" s="32"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="61" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H3" s="32"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="61" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="50"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="33" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="50"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>482</v>
+      <c r="A5" s="61" t="s">
+        <v>481</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>12</v>
@@ -3832,8 +3832,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="50" t="s">
-        <v>482</v>
+      <c r="E5" s="61" t="s">
+        <v>481</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>12</v>
@@ -3842,8 +3842,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="50" t="s">
-        <v>482</v>
+      <c r="I5" s="61" t="s">
+        <v>481</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>14</v>
@@ -3853,57 +3853,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D6" s="32"/>
-      <c r="E6" s="50"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="35" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H6" s="32"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D7" s="32"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="35" t="s">
         <v>19</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="32"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="35" t="s">
         <v>19</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="35" t="s">
         <v>19</v>
       </c>
@@ -3928,32 +3928,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D9" s="32"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="35" t="s">
         <v>24</v>
       </c>
@@ -3961,24 +3961,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="50"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H10" s="32"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="37" t="s">
         <v>26</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="E11" s="50"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="37" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="32"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="37" t="s">
         <v>26</v>
       </c>
@@ -4003,83 +4003,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="C13" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="G13" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="37" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="37" t="s">
+      <c r="K13" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="40" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
-        <v>496</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>420</v>
@@ -4088,8 +4088,8 @@
         <v>421</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="50" t="s">
-        <v>496</v>
+      <c r="E15" s="61" t="s">
+        <v>495</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>422</v>
@@ -4098,8 +4098,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="50" t="s">
-        <v>496</v>
+      <c r="I15" s="61" t="s">
+        <v>495</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>423</v>
@@ -4109,32 +4109,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="35" t="s">
         <v>424</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="35" t="s">
         <v>425</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="35" t="s">
         <v>426</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="37" t="s">
         <v>30</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="37" t="s">
         <v>30</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="32"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="37" t="s">
         <v>30</v>
       </c>
@@ -4159,23 +4159,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>500</v>
-      </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="41" t="s">
         <v>34</v>
       </c>
@@ -4184,53 +4184,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="K19" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="K19" s="38" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="33" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>507</v>
-      </c>
       <c r="H20" s="32"/>
-      <c r="I20" s="50"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4323,18 +4323,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="I5:I14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="I15:I20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="I5:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="I15:I20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4368,31 +4368,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -6255,31 +6255,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -8099,31 +8099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -8521,7 +8521,7 @@
         <v>201</v>
       </c>
       <c r="O8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>202</v>
@@ -8580,7 +8580,7 @@
         <v>204</v>
       </c>
       <c r="O9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>84</v>
@@ -8639,7 +8639,7 @@
         <v>205</v>
       </c>
       <c r="O10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>73</v>
@@ -8698,16 +8698,16 @@
         <v>207</v>
       </c>
       <c r="O11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>73</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S11" t="s">
         <v>208</v>
@@ -8757,7 +8757,7 @@
         <v>211</v>
       </c>
       <c r="O12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>73</v>
@@ -8816,7 +8816,7 @@
         <v>218</v>
       </c>
       <c r="O13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>73</v>
@@ -8875,7 +8875,7 @@
         <v>220</v>
       </c>
       <c r="O14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>73</v>
@@ -8887,7 +8887,7 @@
         <v>123</v>
       </c>
       <c r="S14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>73</v>
@@ -9052,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>73</v>
@@ -9111,7 +9111,7 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>73</v>
@@ -9170,7 +9170,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>73</v>
@@ -9229,7 +9229,7 @@
         <v>5</v>
       </c>
       <c r="O20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>73</v>
@@ -9288,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>73</v>
@@ -9347,7 +9347,7 @@
         <v>7</v>
       </c>
       <c r="O22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>73</v>
@@ -9406,7 +9406,7 @@
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>73</v>
@@ -9465,7 +9465,7 @@
         <v>9</v>
       </c>
       <c r="O24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>73</v>
@@ -9524,7 +9524,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P25" s="16" t="s">
         <v>73</v>
@@ -9583,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="O26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>73</v>
@@ -9642,7 +9642,7 @@
         <v>12</v>
       </c>
       <c r="O27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>73</v>
@@ -9701,7 +9701,7 @@
         <v>13</v>
       </c>
       <c r="O28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>73</v>
@@ -9760,7 +9760,7 @@
         <v>14</v>
       </c>
       <c r="O29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>73</v>
@@ -9819,7 +9819,7 @@
         <v>15</v>
       </c>
       <c r="O30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>73</v>
@@ -9878,10 +9878,10 @@
         <v>16</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>163</v>
@@ -9929,11 +9929,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -9947,7 +9947,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9958,7 +9958,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="6" t="s">
         <v>226</v>
       </c>
@@ -9967,7 +9967,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="66" t="s">
         <v>228</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="8" t="s">
         <v>231</v>
       </c>
@@ -9987,7 +9987,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="10" t="s">
         <v>233</v>
       </c>
@@ -9996,7 +9996,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="20" t="s">
         <v>235</v>
       </c>
@@ -10005,7 +10005,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="10" t="s">
         <v>411</v>
       </c>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="13"/>
@@ -10091,28 +10091,28 @@
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
-        <v>525</v>
+      <c r="A24" s="58" t="s">
+        <v>524</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>526</v>
+      <c r="A25" s="58" t="s">
+        <v>525</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
-        <v>527</v>
+      <c r="A26" s="58" t="s">
+        <v>526</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="58" t="s">
         <v>215</v>
       </c>
       <c r="B27" s="25"/>
@@ -11747,7 +11747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11765,16 +11765,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
       <c r="G1" s="28"/>
       <c r="H1" s="16"/>
     </row>
@@ -14111,7 +14111,7 @@
         <v>309</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>57</v>
@@ -14256,7 +14256,7 @@
         <v>316</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>57</v>
@@ -14376,7 +14376,7 @@
         <v>460</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F109" s="18" t="s">
         <v>57</v>
@@ -14594,7 +14594,7 @@
         <v>461</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F118" s="18" t="s">
         <v>57</v>
@@ -14642,7 +14642,7 @@
         <v>117</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>58</v>
@@ -14814,7 +14814,7 @@
         <v>387</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F127" s="18" t="s">
         <v>57</v>
@@ -15198,7 +15198,7 @@
         <v>331</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>329</v>
@@ -15422,7 +15422,7 @@
         <v>462</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F151" s="17" t="s">
         <v>57</v>
@@ -15614,7 +15614,7 @@
         <v>408</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F159" s="17" t="s">
         <v>57</v>
@@ -15893,7 +15893,7 @@
         <v>444</v>
       </c>
       <c r="E171" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>57</v>
@@ -16144,7 +16144,7 @@
         <v>445</v>
       </c>
       <c r="E182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F182" s="17" t="s">
         <v>57</v>
@@ -16395,7 +16395,7 @@
         <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F193" s="17" t="s">
         <v>57</v>
@@ -16646,7 +16646,7 @@
         <v>447</v>
       </c>
       <c r="E204" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F204" s="17" t="s">
         <v>57</v>
@@ -16897,7 +16897,7 @@
         <v>448</v>
       </c>
       <c r="E215" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F215" s="17" t="s">
         <v>57</v>
@@ -17148,7 +17148,7 @@
         <v>449</v>
       </c>
       <c r="E226" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F226" s="17" t="s">
         <v>57</v>
@@ -17399,7 +17399,7 @@
         <v>450</v>
       </c>
       <c r="E237" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F237" s="17" t="s">
         <v>57</v>
@@ -17650,7 +17650,7 @@
         <v>451</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F248" s="17" t="s">
         <v>57</v>
@@ -17901,7 +17901,7 @@
         <v>452</v>
       </c>
       <c r="E259" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F259" s="17" t="s">
         <v>57</v>
@@ -18152,7 +18152,7 @@
         <v>453</v>
       </c>
       <c r="E270" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F270" s="17" t="s">
         <v>57</v>
@@ -18403,7 +18403,7 @@
         <v>454</v>
       </c>
       <c r="E281" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F281" s="17" t="s">
         <v>57</v>
@@ -18654,7 +18654,7 @@
         <v>455</v>
       </c>
       <c r="E292" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F292" s="17" t="s">
         <v>57</v>
@@ -18905,7 +18905,7 @@
         <v>456</v>
       </c>
       <c r="E303" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F303" s="17" t="s">
         <v>57</v>
@@ -19156,7 +19156,7 @@
         <v>457</v>
       </c>
       <c r="E314" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F314" s="17" t="s">
         <v>57</v>
@@ -19407,7 +19407,7 @@
         <v>458</v>
       </c>
       <c r="E325" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F325" s="17" t="s">
         <v>57</v>
@@ -19658,7 +19658,7 @@
         <v>459</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="F336" s="17" t="s">
         <v>57</v>
@@ -19681,7 +19681,7 @@
         <v>429</v>
       </c>
       <c r="E337" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F337" s="17" t="s">
         <v>57</v>
@@ -19745,175 +19745,175 @@
     <col min="1" max="1" width="18.140625" style="29" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="29" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="69" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="57" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="29" customWidth="1"/>
     <col min="8" max="16384" width="8.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G4" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H4" s="51" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B5" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="C5" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H5" s="51" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B6" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C6" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D6" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="F5" s="64" t="s">
+      <c r="E6" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" s="63" t="s">
+      <c r="H6" s="51" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="51" t="s">
         <v>216</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>524</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>524</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="D7" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="H7" s="67" t="s">
-        <v>524</v>
+      <c r="H7" s="55" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -19938,6 +19938,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -20191,15 +20200,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E575968-09C6-40B3-AF74-1D9BC02A58C9}">
   <ds:schemaRefs>
@@ -20212,6 +20212,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB75FCD-A251-4C8F-A506-C1098085AFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438624D7-FFDF-4F49-B473-0E6F83FFB2B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20229,12 +20237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB75FCD-A251-4C8F-A506-C1098085AFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>